--- a/data/spuibeheer/extern/verwerkt_in_excel/os_VA_2021.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_VA_2021.xlsx
@@ -11,6 +11,9 @@
     <sheet name="April" sheetId="2" r:id="rId2"/>
     <sheet name="Mei" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">April!$A$6:$H$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="376">
   <si>
     <t>Waterpeil aanpassingen Veurne - Ambacht</t>
   </si>
@@ -368,9 +371,6 @@
     <t>4,81</t>
   </si>
   <si>
-    <t>1;45</t>
-  </si>
-  <si>
     <t>4,75</t>
   </si>
   <si>
@@ -576,9 +576,6 @@
   </si>
   <si>
     <t>3,98</t>
-  </si>
-  <si>
-    <t>"</t>
   </si>
   <si>
     <t>3,97</t>
@@ -824,9 +821,6 @@
     <t>4,47</t>
   </si>
   <si>
-    <t>15/50</t>
-  </si>
-  <si>
     <t>0,81</t>
   </si>
   <si>
@@ -986,9 +980,6 @@
     <t>4,05</t>
   </si>
   <si>
-    <t>04::40</t>
-  </si>
-  <si>
     <t>4,73</t>
   </si>
   <si>
@@ -1035,9 +1026,6 @@
   </si>
   <si>
     <t>3,50</t>
-  </si>
-  <si>
-    <t>03*05*2021</t>
   </si>
   <si>
     <t>4 x 1,80 m</t>
@@ -1140,9 +1128,6 @@
   </si>
   <si>
     <t>2,24</t>
-  </si>
-  <si>
-    <t>OMGEKEERD SPUIBEHEER GEDAAN</t>
   </si>
   <si>
     <t>2,22</t>
@@ -1374,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1442,14 +1427,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1468,12 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,35 +1739,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -3525,22 +3507,22 @@
     </row>
     <row r="82" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
-      <c r="B82" s="23">
+      <c r="B82" s="14">
         <v>0.63888888888888895</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="24" t="s">
+      <c r="F82" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="23" t="s">
         <v>17</v>
       </c>
       <c r="H82" s="20"/>
@@ -3969,8 +3951,8 @@
       <c r="A102" s="13">
         <v>44267</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>115</v>
+      <c r="B102" s="14">
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>27</v>
@@ -3979,7 +3961,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>11</v>
@@ -3995,13 +3977,13 @@
         <v>0.15625</v>
       </c>
       <c r="C103" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>11</v>
@@ -4023,7 +4005,7 @@
         <v>11</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>11</v>
@@ -4057,13 +4039,13 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>11</v>
@@ -4087,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>11</v>
@@ -4127,7 +4109,7 @@
         <v>0.75</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>11</v>
@@ -4151,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>11</v>
@@ -4175,7 +4157,7 @@
         <v>11</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>11</v>
@@ -4193,13 +4175,13 @@
         <v>0.13472222222222222</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>11</v>
@@ -4229,7 +4211,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H113" s="19"/>
     </row>
@@ -4239,7 +4221,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>11</v>
@@ -4257,13 +4239,13 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="C115" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>11</v>
@@ -4285,13 +4267,13 @@
         <v>11</v>
       </c>
       <c r="E116" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>14</v>
@@ -4309,7 +4291,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>11</v>
@@ -4327,13 +4309,13 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>11</v>
@@ -4349,7 +4331,7 @@
         <v>0.75</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>11</v>
@@ -4373,7 +4355,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>11</v>
@@ -4391,19 +4373,19 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="C121" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D121" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>138</v>
-      </c>
       <c r="F121" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H121" s="22" t="s">
         <v>14</v>
@@ -4415,13 +4397,13 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="C122" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>11</v>
@@ -4439,13 +4421,13 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>11</v>
@@ -4467,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>11</v>
@@ -4507,7 +4489,7 @@
         <v>11</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>11</v>
@@ -4525,13 +4507,13 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>11</v>
@@ -4549,13 +4531,13 @@
         <v>0.71180555555555547</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F128" s="17" t="s">
         <v>11</v>
@@ -4571,7 +4553,7 @@
         <v>0.75</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>11</v>
@@ -4595,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>11</v>
@@ -4619,7 +4601,7 @@
         <v>11</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F131" s="17" t="s">
         <v>11</v>
@@ -4661,13 +4643,13 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F133" s="17" t="s">
         <v>11</v>
@@ -4689,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>11</v>
@@ -4731,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F136" s="17" t="s">
         <v>11</v>
@@ -4755,7 +4737,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F137" s="17" t="s">
         <v>11</v>
@@ -4773,7 +4755,7 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>11</v>
@@ -4819,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F140" s="17" t="s">
         <v>11</v>
@@ -4843,7 +4825,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F141" s="17" t="s">
         <v>11</v>
@@ -4885,19 +4867,19 @@
         <v>0.23263888888888887</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F143" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H143" s="19"/>
     </row>
@@ -4907,13 +4889,13 @@
         <v>0.3125</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>153</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="F144" s="17" t="s">
         <v>11</v>
@@ -4929,7 +4911,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>11</v>
@@ -4953,7 +4935,7 @@
         <v>11</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F146" s="17" t="s">
         <v>11</v>
@@ -4977,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F147" s="17" t="s">
         <v>11</v>
@@ -5023,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F149" s="17" t="s">
         <v>11</v>
@@ -5045,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F150" s="17" t="s">
         <v>11</v>
@@ -5091,13 +5073,13 @@
         <v>11</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F152" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G152" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H152" s="22" t="s">
         <v>14</v>
@@ -5115,7 +5097,7 @@
         <v>11</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F153" s="17" t="s">
         <v>11</v>
@@ -5133,13 +5115,13 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F154" s="17" t="s">
         <v>11</v>
@@ -5179,7 +5161,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F156" s="17" t="s">
         <v>11</v>
@@ -5201,13 +5183,13 @@
         <v>11</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F157" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H157" s="22" t="s">
         <v>14</v>
@@ -5219,13 +5201,13 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F158" s="17" t="s">
         <v>11</v>
@@ -5243,7 +5225,7 @@
         <v>0.75</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>11</v>
@@ -5261,13 +5243,13 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F160" s="17" t="s">
         <v>11</v>
@@ -5313,13 +5295,13 @@
         <v>11</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F162" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H162" s="22" t="s">
         <v>14</v>
@@ -5337,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F163" s="17" t="s">
         <v>11</v>
@@ -5395,13 +5377,13 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>164</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>11</v>
@@ -5410,7 +5392,7 @@
         <v>17</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.4">
@@ -5425,13 +5407,13 @@
         <v>11</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H167" s="22" t="s">
         <v>14</v>
@@ -5443,13 +5425,13 @@
         <v>0.75</v>
       </c>
       <c r="C168" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D168" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>11</v>
@@ -5471,13 +5453,13 @@
         <v>11</v>
       </c>
       <c r="E169" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G169" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="F169" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="H169" s="19"/>
     </row>
@@ -5493,7 +5475,7 @@
         <v>11</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>11</v>
@@ -5517,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>11</v>
@@ -5541,7 +5523,7 @@
         <v>11</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>11</v>
@@ -5581,7 +5563,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D174" s="17" t="s">
         <v>11</v>
@@ -5605,7 +5587,7 @@
         <v>11</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F175" s="17" t="s">
         <v>11</v>
@@ -5633,7 +5615,7 @@
         <v>11</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H176" s="18" t="s">
         <v>14</v>
@@ -5645,7 +5627,7 @@
         <v>0.75</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>11</v>
@@ -5677,7 +5659,7 @@
       <c r="G178" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H178" s="25" t="s">
+      <c r="H178" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5689,13 +5671,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F179" s="17" t="s">
         <v>11</v>
@@ -5717,13 +5699,13 @@
         <v>11</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F180" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H180" s="18" t="s">
         <v>14</v>
@@ -5747,7 +5729,7 @@
         <v>11</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>18</v>
@@ -5759,7 +5741,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D182" s="17" t="s">
         <v>11</v>
@@ -5783,7 +5765,7 @@
         <v>11</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>11</v>
@@ -5823,7 +5805,7 @@
         <v>0.75</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>11</v>
@@ -5841,7 +5823,7 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>11</v>
@@ -5871,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F187" s="17" t="s">
         <v>11</v>
@@ -5901,7 +5883,7 @@
         <v>11</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H188" s="18" t="s">
         <v>14</v>
@@ -5913,7 +5895,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>11</v>
@@ -5931,13 +5913,13 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D190" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F190" s="17" t="s">
         <v>11</v>
@@ -5949,17 +5931,15 @@
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="19"/>
-      <c r="B191" s="18" t="s">
-        <v>185</v>
-      </c>
+      <c r="B191" s="18"/>
       <c r="C191" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>186</v>
       </c>
       <c r="F191" s="17" t="s">
         <v>11</v>
@@ -5981,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F192" s="17" t="s">
         <v>11</v>
@@ -6003,13 +5983,13 @@
         <v>11</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F193" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H193" s="18" t="s">
         <v>14</v>
@@ -6093,7 +6073,7 @@
         <v>11</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F197" s="17" t="s">
         <v>11</v>
@@ -6111,7 +6091,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>11</v>
@@ -6129,13 +6109,13 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F199" s="17" t="s">
         <v>11</v>
@@ -6159,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F200" s="17" t="s">
         <v>11</v>
@@ -6199,7 +6179,7 @@
         <v>0.75</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D202" s="17" t="s">
         <v>11</v>
@@ -6249,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F204" s="17" t="s">
         <v>11</v>
@@ -6273,13 +6253,13 @@
         <v>11</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F205" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H205" s="18" t="s">
         <v>14</v>
@@ -6309,13 +6289,13 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D207" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F207" s="17" t="s">
         <v>11</v>
@@ -6333,13 +6313,13 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D208" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F208" s="17" t="s">
         <v>11</v>
@@ -6361,7 +6341,7 @@
         <v>11</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F209" s="17" t="s">
         <v>11</v>
@@ -6401,13 +6381,13 @@
         <v>11</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F211" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G211" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H211" s="18" t="s">
         <v>14</v>
@@ -6419,13 +6399,13 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D212" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F212" s="17" t="s">
         <v>11</v>
@@ -6479,7 +6459,7 @@
         <v>11</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H214" s="18" t="s">
         <v>14</v>
@@ -6491,7 +6471,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D215" s="17" t="s">
         <v>11</v>
@@ -6515,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F216" s="17" t="s">
         <v>11</v>
@@ -6561,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F218" s="17" t="s">
         <v>11</v>
@@ -6601,13 +6581,13 @@
         <v>11</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H220" s="18" t="s">
         <v>14</v>
@@ -6621,13 +6601,13 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D221" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>11</v>
@@ -6685,7 +6665,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>11</v>
@@ -6715,7 +6695,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F225" s="17" t="s">
         <v>11</v>
@@ -6761,7 +6741,7 @@
         <v>11</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F227" s="17" t="s">
         <v>11</v>
@@ -6827,7 +6807,7 @@
         <v>11</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F230" s="17" t="s">
         <v>11</v>
@@ -6851,7 +6831,7 @@
         <v>11</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F231" s="17" t="s">
         <v>11</v>
@@ -6913,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F234" s="17" t="s">
         <v>11</v>
@@ -6937,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>11</v>
@@ -6983,7 +6963,7 @@
         <v>11</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F237" s="17" t="s">
         <v>11</v>
@@ -7095,7 +7075,7 @@
         <v>11</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F242" s="17" t="s">
         <v>11</v>
@@ -7159,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F245" s="17" t="s">
         <v>11</v>
@@ -7177,7 +7157,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>11</v>
@@ -7205,7 +7185,7 @@
         <v>11</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F247" s="17" t="s">
         <v>11</v>
@@ -7271,7 +7251,7 @@
         <v>11</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F250" s="17" t="s">
         <v>11</v>
@@ -7333,7 +7313,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D253" s="17" t="s">
         <v>11</v>
@@ -7363,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F254" s="17" t="s">
         <v>11</v>
@@ -7403,7 +7383,7 @@
         <v>0.75</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>11</v>
@@ -7419,7 +7399,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D257" s="17" t="s">
         <v>11</v>
@@ -7449,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F258" s="17" t="s">
         <v>11</v>
@@ -7491,13 +7471,13 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D260" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F260" s="17" t="s">
         <v>11</v>
@@ -7519,7 +7499,7 @@
         <v>11</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F261" s="17" t="s">
         <v>11</v>
@@ -7559,7 +7539,7 @@
         <v>11</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F263" s="17" t="s">
         <v>11</v>
@@ -7607,13 +7587,13 @@
         <v>11</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F265" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G265" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H265" s="19"/>
     </row>
@@ -7623,7 +7603,7 @@
         <v>0.75</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D266" s="17" t="s">
         <v>11</v>
@@ -7647,7 +7627,7 @@
         <v>11</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F267" s="17" t="s">
         <v>11</v>
@@ -7673,7 +7653,7 @@
         <v>11</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F268" s="17" t="s">
         <v>11</v>
@@ -7691,13 +7671,13 @@
         <v>0.1875</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F269" s="17" t="s">
         <v>11</v>
@@ -7715,13 +7695,13 @@
         <v>0.24305555555555555</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F270" s="17" t="s">
         <v>11</v>
@@ -7761,7 +7741,7 @@
         <v>11</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F272" s="17" t="s">
         <v>11</v>
@@ -7783,13 +7763,13 @@
         <v>11</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F273" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G273" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H273" s="18" t="s">
         <v>14</v>
@@ -7807,7 +7787,7 @@
         <v>11</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>11</v>
@@ -7849,13 +7829,13 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D276" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F276" s="17" t="s">
         <v>11</v>
@@ -7873,7 +7853,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>11</v>
@@ -7903,7 +7883,7 @@
         <v>11</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F278" s="17" t="s">
         <v>11</v>
@@ -7921,13 +7901,13 @@
         <v>0.28472222222222221</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D279" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F279" s="17" t="s">
         <v>11</v>
@@ -7943,7 +7923,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D280" s="17" t="s">
         <v>11</v>
@@ -7967,7 +7947,7 @@
         <v>11</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F281" s="17" t="s">
         <v>11</v>
@@ -7989,7 +7969,7 @@
         <v>11</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F282" s="17" t="s">
         <v>11</v>
@@ -8031,7 +8011,7 @@
         <v>0.75</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D284" s="17" t="s">
         <v>11</v>
@@ -8049,13 +8029,13 @@
         <v>0.78472222222222221</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D285" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F285" s="17" t="s">
         <v>11</v>
@@ -8077,7 +8057,7 @@
         <v>11</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F286" s="17" t="s">
         <v>11</v>
@@ -15369,35 +15349,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="E258" sqref="E258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -15469,13 +15449,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>14</v>
@@ -15493,7 +15473,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>11</v>
@@ -15511,13 +15491,13 @@
         <v>0.30555555555555552</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>11</v>
@@ -15533,7 +15513,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>11</v>
@@ -15557,7 +15537,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>11</v>
@@ -15579,13 +15559,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>14</v>
@@ -15603,7 +15583,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>11</v>
@@ -15621,7 +15601,7 @@
         <v>0.75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>11</v>
@@ -15657,7 +15637,7 @@
     </row>
     <row r="16" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
-      <c r="B16" s="32">
+      <c r="B16" s="25">
         <v>0.89236111111111116</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -15667,7 +15647,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>11</v>
@@ -15715,7 +15695,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>11</v>
@@ -15775,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>11</v>
@@ -15793,7 +15773,7 @@
         <v>0.75</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>11</v>
@@ -15817,7 +15797,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>11</v>
@@ -15841,13 +15821,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="19"/>
     </row>
@@ -15863,7 +15843,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>11</v>
@@ -15881,13 +15861,13 @@
         <v>0.19236111111111112</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>11</v>
@@ -15911,7 +15891,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>11</v>
@@ -15929,7 +15909,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>11</v>
@@ -15947,7 +15927,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>11</v>
@@ -15975,7 +15955,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>11</v>
@@ -16015,7 +15995,7 @@
         <v>0.75</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>11</v>
@@ -16039,7 +16019,7 @@
         <v>11</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>11</v>
@@ -16085,7 +16065,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>11</v>
@@ -16103,13 +16083,13 @@
         <v>0.23472222222222219</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>11</v>
@@ -16151,7 +16131,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>11</v>
@@ -16267,7 +16247,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>18</v>
@@ -16285,7 +16265,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>11</v>
@@ -16309,7 +16289,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
@@ -16333,7 +16313,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>11</v>
@@ -16351,13 +16331,13 @@
         <v>0.49652777777777773</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
@@ -16413,13 +16393,13 @@
         <v>0.81944444444444453</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>11</v>
@@ -16443,7 +16423,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>11</v>
@@ -16461,13 +16441,13 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>11</v>
@@ -16525,7 +16505,7 @@
         <v>0.34930555555555554</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>11</v>
@@ -16537,7 +16517,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>14</v>
@@ -16555,7 +16535,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>11</v>
@@ -16579,7 +16559,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>11</v>
@@ -16601,7 +16581,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>11</v>
@@ -16641,7 +16621,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>11</v>
@@ -16667,7 +16647,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>11</v>
@@ -16707,13 +16687,13 @@
         <v>0.15277777777777776</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>11</v>
@@ -16747,13 +16727,13 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>11</v>
@@ -16777,7 +16757,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>11</v>
@@ -16817,13 +16797,13 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>11</v>
@@ -16857,13 +16837,13 @@
         <v>0.94097222222222221</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>11</v>
@@ -16883,13 +16863,13 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>11</v>
@@ -16913,7 +16893,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>11</v>
@@ -16947,13 +16927,13 @@
         <v>0.46180555555555558</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>11</v>
@@ -17001,7 +16981,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>11</v>
@@ -17035,13 +17015,13 @@
         <v>0.97430555555555554</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>11</v>
@@ -17067,7 +17047,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>11</v>
@@ -17107,7 +17087,7 @@
         <v>0.21875</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>11</v>
@@ -17153,7 +17133,7 @@
         <v>11</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>11</v>
@@ -17171,13 +17151,13 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>11</v>
@@ -17195,13 +17175,13 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>11</v>
@@ -17241,7 +17221,7 @@
         <v>11</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>11</v>
@@ -17263,7 +17243,7 @@
         <v>11</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>11</v>
@@ -17289,7 +17269,7 @@
         <v>11</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>11</v>
@@ -17335,7 +17315,7 @@
         <v>11</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>11</v>
@@ -17375,7 +17355,7 @@
         <v>11</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>11</v>
@@ -17417,7 +17397,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>11</v>
@@ -17429,7 +17409,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H95" s="19"/>
     </row>
@@ -17439,7 +17419,7 @@
         <v>0.75</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>11</v>
@@ -17465,7 +17445,7 @@
         <v>11</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>11</v>
@@ -17489,7 +17469,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>11</v>
@@ -17519,7 +17499,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H99" s="19"/>
     </row>
@@ -17535,7 +17515,7 @@
         <v>11</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>11</v>
@@ -17575,7 +17555,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>11</v>
@@ -17589,8 +17569,8 @@
     </row>
     <row r="103" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="19"/>
-      <c r="B103" s="18" t="s">
-        <v>267</v>
+      <c r="B103" s="14">
+        <v>0.65972222222222221</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>27</v>
@@ -17629,7 +17609,7 @@
         <v>11</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H104" s="19"/>
     </row>
@@ -17639,7 +17619,7 @@
         <v>0.75</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>11</v>
@@ -17663,7 +17643,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>11</v>
@@ -17681,7 +17661,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>11</v>
@@ -17711,7 +17691,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>11</v>
@@ -17729,19 +17709,19 @@
         <v>0.21180555555555555</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F109" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H109" s="19"/>
     </row>
@@ -17797,7 +17777,7 @@
         <v>11</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>11</v>
@@ -17839,13 +17819,13 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>11</v>
@@ -17857,17 +17837,17 @@
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="19"/>
-      <c r="B115" s="23">
+      <c r="B115" s="14">
         <v>0.75</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D115" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="20"/>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G115" s="19"/>
@@ -17885,7 +17865,7 @@
         <v>11</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>11</v>
@@ -17903,13 +17883,13 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>11</v>
@@ -17955,13 +17935,13 @@
         <v>11</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F119" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H119" s="19"/>
     </row>
@@ -17977,7 +17957,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>11</v>
@@ -18071,7 +18051,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H124" s="19"/>
     </row>
@@ -18081,7 +18061,7 @@
         <v>0.75</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>11</v>
@@ -18105,7 +18085,7 @@
         <v>11</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F126" s="17" t="s">
         <v>11</v>
@@ -18123,13 +18103,13 @@
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D127" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F127" s="17" t="s">
         <v>11</v>
@@ -18147,13 +18127,13 @@
         <v>0.1875</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F128" s="17" t="s">
         <v>11</v>
@@ -18171,7 +18151,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>11</v>
@@ -18199,7 +18179,7 @@
         <v>11</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>11</v>
@@ -18287,7 +18267,7 @@
         <v>11</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F134" s="17" t="s">
         <v>11</v>
@@ -18309,7 +18289,7 @@
         <v>11</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F135" s="17" t="s">
         <v>11</v>
@@ -18333,7 +18313,7 @@
         <v>11</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F136" s="17" t="s">
         <v>11</v>
@@ -18357,7 +18337,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F137" s="17" t="s">
         <v>11</v>
@@ -18381,7 +18361,7 @@
         <v>11</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F138" s="17" t="s">
         <v>11</v>
@@ -18397,7 +18377,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>11</v>
@@ -18415,13 +18395,13 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F140" s="17" t="s">
         <v>11</v>
@@ -18443,7 +18423,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F141" s="17" t="s">
         <v>11</v>
@@ -18495,7 +18475,7 @@
         <v>11</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H143" s="19"/>
     </row>
@@ -18511,7 +18491,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F144" s="17" t="s">
         <v>11</v>
@@ -18529,13 +18509,13 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" s="17" t="s">
         <v>11</v>
@@ -18559,7 +18539,7 @@
         <v>11</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F146" s="17" t="s">
         <v>11</v>
@@ -18599,7 +18579,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>11</v>
@@ -18623,7 +18603,7 @@
         <v>11</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F149" s="17" t="s">
         <v>11</v>
@@ -18651,7 +18631,7 @@
         <v>11</v>
       </c>
       <c r="G150" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H150" s="22" t="s">
         <v>14</v>
@@ -18681,13 +18661,13 @@
         <v>0.76736111111111116</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F152" s="17" t="s">
         <v>11</v>
@@ -18717,7 +18697,7 @@
         <v>11</v>
       </c>
       <c r="G153" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H153" s="19"/>
     </row>
@@ -18733,7 +18713,7 @@
         <v>11</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F154" s="17" t="s">
         <v>11</v>
@@ -18751,7 +18731,7 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>11</v>
@@ -18763,7 +18743,7 @@
         <v>11</v>
       </c>
       <c r="G155" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>14</v>
@@ -18781,7 +18761,7 @@
         <v>11</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F156" s="17" t="s">
         <v>11</v>
@@ -18821,7 +18801,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>11</v>
@@ -18845,7 +18825,7 @@
         <v>11</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F159" s="17" t="s">
         <v>11</v>
@@ -18867,7 +18847,7 @@
         <v>11</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F160" s="17" t="s">
         <v>11</v>
@@ -18885,7 +18865,7 @@
         <v>0.75</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>11</v>
@@ -18933,7 +18913,7 @@
         <v>11</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F163" s="17" t="s">
         <v>11</v>
@@ -18957,7 +18937,7 @@
         <v>11</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F164" s="17" t="s">
         <v>11</v>
@@ -18981,7 +18961,7 @@
         <v>11</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F165" s="17" t="s">
         <v>11</v>
@@ -19021,7 +19001,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>11</v>
@@ -19045,7 +19025,7 @@
         <v>11</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>11</v>
@@ -19067,13 +19047,13 @@
         <v>11</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G169" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H169" s="18" t="s">
         <v>14</v>
@@ -19085,7 +19065,7 @@
         <v>0.75</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>11</v>
@@ -19139,7 +19119,7 @@
         <v>11</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H172" s="19"/>
     </row>
@@ -19155,7 +19135,7 @@
         <v>11</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>11</v>
@@ -19171,19 +19151,19 @@
         <v>0.19444444444444445</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D174" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F174" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H174" s="18" t="s">
         <v>14</v>
@@ -19203,7 +19183,7 @@
         <v>11</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F175" s="17" t="s">
         <v>11</v>
@@ -19245,7 +19225,7 @@
         <v>11</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F177" s="17" t="s">
         <v>11</v>
@@ -19267,7 +19247,7 @@
         <v>11</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F178" s="17" t="s">
         <v>11</v>
@@ -19289,13 +19269,13 @@
         <v>11</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F179" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H179" s="18" t="s">
         <v>14</v>
@@ -19307,7 +19287,7 @@
         <v>0.75</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>11</v>
@@ -19337,7 +19317,7 @@
         <v>11</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H181" s="18" t="s">
         <v>18</v>
@@ -19355,7 +19335,7 @@
         <v>11</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F182" s="17" t="s">
         <v>11</v>
@@ -19373,13 +19353,13 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>11</v>
@@ -19397,7 +19377,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>11</v>
@@ -19415,19 +19395,19 @@
         <v>0.40625</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F185" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G185" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F185" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="H185" s="18" t="s">
         <v>18</v>
@@ -19445,7 +19425,7 @@
         <v>11</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F186" s="17" t="s">
         <v>11</v>
@@ -19485,7 +19465,7 @@
         <v>11</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F188" s="17" t="s">
         <v>11</v>
@@ -19503,19 +19483,19 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F189" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H189" s="18" t="s">
         <v>18</v>
@@ -19533,7 +19513,7 @@
         <v>11</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F190" s="17" t="s">
         <v>11</v>
@@ -19557,7 +19537,7 @@
         <v>11</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F191" s="17" t="s">
         <v>11</v>
@@ -19575,7 +19555,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D192" s="17" t="s">
         <v>11</v>
@@ -19593,19 +19573,19 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F193" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H193" s="18" t="s">
         <v>18</v>
@@ -19623,7 +19603,7 @@
         <v>11</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F194" s="17" t="s">
         <v>11</v>
@@ -19663,7 +19643,7 @@
         <v>11</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F196" s="17" t="s">
         <v>11</v>
@@ -19681,19 +19661,19 @@
         <v>0.97222222222222221</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F197" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H197" s="18" t="s">
         <v>18</v>
@@ -19729,7 +19709,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>11</v>
@@ -19747,7 +19727,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>11</v>
@@ -19777,13 +19757,13 @@
         <v>11</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F201" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G201" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H201" s="18" t="s">
         <v>18</v>
@@ -19801,7 +19781,7 @@
         <v>11</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F202" s="17" t="s">
         <v>11</v>
@@ -19841,7 +19821,7 @@
         <v>11</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F204" s="17" t="s">
         <v>11</v>
@@ -19873,7 +19853,7 @@
         <v>11</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H205" s="18" t="s">
         <v>18</v>
@@ -19891,7 +19871,7 @@
         <v>11</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F206" s="17" t="s">
         <v>11</v>
@@ -19979,7 +19959,7 @@
         <v>11</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F210" s="17" t="s">
         <v>11</v>
@@ -19995,13 +19975,13 @@
         <v>0.93402777777777779</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F211" s="17" t="s">
         <v>11</v>
@@ -20021,13 +20001,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D212" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F212" s="17" t="s">
         <v>11</v>
@@ -20051,7 +20031,7 @@
         <v>11</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F213" s="17" t="s">
         <v>11</v>
@@ -20085,7 +20065,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D215" s="17" t="s">
         <v>11</v>
@@ -20131,13 +20111,13 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D217" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F217" s="17" t="s">
         <v>11</v>
@@ -20159,7 +20139,7 @@
         <v>11</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F218" s="17" t="s">
         <v>11</v>
@@ -20175,7 +20155,7 @@
         <v>0.75</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>11</v>
@@ -20193,19 +20173,19 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D220" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F220" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G220" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H220" s="18" t="s">
         <v>14</v>
@@ -20225,13 +20205,13 @@
         <v>11</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F221" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H221" s="18" t="s">
         <v>18</v>
@@ -20271,13 +20251,13 @@
         <v>11</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F223" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H223" s="19"/>
     </row>
@@ -20311,7 +20291,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F225" s="17" t="s">
         <v>11</v>
@@ -20335,7 +20315,7 @@
         <v>11</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F226" s="17" t="s">
         <v>11</v>
@@ -20379,7 +20359,7 @@
         <v>11</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F228" s="17" t="s">
         <v>11</v>
@@ -20413,13 +20393,13 @@
         <v>0.99305555555555547</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D230" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F230" s="17" t="s">
         <v>11</v>
@@ -20491,7 +20471,7 @@
         <v>11</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F233" s="17" t="s">
         <v>11</v>
@@ -20531,7 +20511,7 @@
         <v>11</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>11</v>
@@ -20555,7 +20535,7 @@
         <v>11</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F236" s="17" t="s">
         <v>11</v>
@@ -20573,13 +20553,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F237" s="17" t="s">
         <v>11</v>
@@ -20595,7 +20575,7 @@
         <v>0.75</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>11</v>
@@ -20619,7 +20599,7 @@
         <v>11</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F239" s="17" t="s">
         <v>11</v>
@@ -20643,7 +20623,7 @@
         <v>11</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F240" s="17" t="s">
         <v>11</v>
@@ -20691,7 +20671,7 @@
         <v>11</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F242" s="17" t="s">
         <v>11</v>
@@ -20707,7 +20687,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>11</v>
@@ -20731,7 +20711,7 @@
         <v>11</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F244" s="17" t="s">
         <v>11</v>
@@ -20755,7 +20735,7 @@
         <v>11</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F245" s="17" t="s">
         <v>11</v>
@@ -20797,7 +20777,7 @@
         <v>0.75</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>11</v>
@@ -20845,7 +20825,7 @@
         <v>11</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F249" s="17" t="s">
         <v>11</v>
@@ -20869,7 +20849,7 @@
         <v>11</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F250" s="17" t="s">
         <v>11</v>
@@ -20887,19 +20867,19 @@
         <v>0.23611111111111113</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D251" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F251" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H251" s="19"/>
     </row>
@@ -20949,13 +20929,13 @@
         <v>0.57013888888888886</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D254" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F254" s="17" t="s">
         <v>11</v>
@@ -20973,7 +20953,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D255" s="17" t="s">
         <v>11</v>
@@ -20997,19 +20977,19 @@
         <v>0.74652777777777779</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F256" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G256" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H256" s="19"/>
     </row>
@@ -21025,7 +21005,7 @@
         <v>11</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F257" s="17" t="s">
         <v>11</v>
@@ -21051,7 +21031,7 @@
         <v>11</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F258" s="17" t="s">
         <v>11</v>
@@ -21065,8 +21045,8 @@
     </row>
     <row r="259" spans="1:8" ht="64" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="19"/>
-      <c r="B259" s="18" t="s">
-        <v>321</v>
+      <c r="B259" s="14">
+        <v>0.19444444444444445</v>
       </c>
       <c r="C259" s="16" t="s">
         <v>19</v>
@@ -21099,13 +21079,13 @@
         <v>11</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F260" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G260" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H260" s="19"/>
     </row>
@@ -21115,7 +21095,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D261" s="17" t="s">
         <v>11</v>
@@ -21155,13 +21135,13 @@
         <v>0.60069444444444442</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D263" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F263" s="17" t="s">
         <v>11</v>
@@ -21185,7 +21165,7 @@
         <v>11</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F264" s="17" t="s">
         <v>11</v>
@@ -21221,19 +21201,19 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D266" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F266" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G266" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H266" s="19"/>
     </row>
@@ -21243,13 +21223,13 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D267" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F267" s="17" t="s">
         <v>11</v>
@@ -21273,7 +21253,7 @@
         <v>11</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F268" s="17" t="s">
         <v>11</v>
@@ -21297,7 +21277,7 @@
         <v>11</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F269" s="17" t="s">
         <v>11</v>
@@ -21315,19 +21295,19 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F270" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G270" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H270" s="19"/>
     </row>
@@ -21337,7 +21317,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D271" s="17" t="s">
         <v>11</v>
@@ -21355,13 +21335,13 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D272" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F272" s="17" t="s">
         <v>11</v>
@@ -21377,13 +21357,13 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D273" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F273" s="17" t="s">
         <v>11</v>
@@ -21401,13 +21381,13 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D274" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F274" s="17" t="s">
         <v>11</v>
@@ -21465,13 +21445,13 @@
         <v>0.88541666666666663</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F277" s="17" t="s">
         <v>11</v>
@@ -28896,35 +28876,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -28990,7 +28973,7 @@
         <v>0.14652777777777778</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>11</v>
@@ -29005,7 +28988,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="64" thickBot="1" x14ac:dyDescent="0.4">
@@ -29020,16 +29003,16 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29038,7 +29021,7 @@
         <v>0.31944444444444448</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>11</v>
@@ -29050,7 +29033,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="19"/>
     </row>
@@ -29060,7 +29043,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>11</v>
@@ -29084,13 +29067,13 @@
         <v>11</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H11" s="19"/>
     </row>
@@ -29106,7 +29089,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>11</v>
@@ -29115,7 +29098,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29148,16 +29131,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29188,22 +29171,22 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29220,7 +29203,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>11</v>
@@ -29248,10 +29231,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29306,13 +29289,13 @@
         <v>11</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H21" s="19"/>
     </row>
@@ -29322,13 +29305,13 @@
         <v>0.70694444444444438</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>11</v>
@@ -29337,7 +29320,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29346,7 +29329,7 @@
         <v>0.75</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>11</v>
@@ -29370,16 +29353,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -29388,25 +29371,25 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
-        <v>338</v>
+      <c r="A26" s="13">
+        <v>44319</v>
       </c>
       <c r="B26" s="14">
         <v>0.22569444444444445</v>
@@ -29418,7 +29401,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>11</v>
@@ -29427,7 +29410,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29436,7 +29419,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>11</v>
@@ -29454,22 +29437,22 @@
         <v>0.33888888888888885</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -29490,7 +29473,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H29" s="19"/>
     </row>
@@ -29500,19 +29483,19 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H30" s="19"/>
     </row>
@@ -29528,7 +29511,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>11</v>
@@ -29537,7 +29520,7 @@
         <v>13</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -29546,22 +29529,22 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -29576,13 +29559,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H33" s="19"/>
     </row>
@@ -29594,13 +29577,13 @@
         <v>0.27847222222222223</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>11</v>
@@ -29609,7 +29592,7 @@
         <v>13</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29618,7 +29601,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>11</v>
@@ -29642,16 +29625,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29694,7 +29677,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H38" s="19"/>
     </row>
@@ -29722,13 +29705,13 @@
         <v>0.80486111111111114</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>11</v>
@@ -29737,7 +29720,7 @@
         <v>13</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -29752,16 +29735,16 @@
         <v>11</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29800,13 +29783,13 @@
         <v>11</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H43" s="19"/>
     </row>
@@ -29816,7 +29799,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>11</v>
@@ -29831,7 +29814,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -29840,22 +29823,22 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29864,13 +29847,13 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>11</v>
@@ -29892,13 +29875,13 @@
         <v>11</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H47" s="19"/>
     </row>
@@ -29908,7 +29891,7 @@
         <v>0.75</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>11</v>
@@ -29932,7 +29915,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>11</v>
@@ -29941,7 +29924,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -29967,7 +29950,7 @@
         <v>21</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -29982,13 +29965,13 @@
         <v>11</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H51" s="19"/>
     </row>
@@ -29998,7 +29981,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>11</v>
@@ -30016,13 +29999,13 @@
         <v>0.39305555555555555</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>11</v>
@@ -30031,7 +30014,7 @@
         <v>13</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30046,16 +30029,16 @@
         <v>11</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30104,7 +30087,7 @@
         <v>0.82986111111111116</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>11</v>
@@ -30116,7 +30099,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H57" s="19"/>
     </row>
@@ -30126,7 +30109,7 @@
         <v>0.91111111111111109</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>11</v>
@@ -30141,7 +30124,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30156,16 +30139,16 @@
         <v>11</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30202,13 +30185,13 @@
         <v>11</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H61" s="19"/>
     </row>
@@ -30220,7 +30203,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>11</v>
@@ -30238,13 +30221,13 @@
         <v>0.43124999999999997</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>11</v>
@@ -30253,7 +30236,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30268,16 +30251,16 @@
         <v>11</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30314,13 +30297,13 @@
         <v>11</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H66" s="19"/>
     </row>
@@ -30348,13 +30331,13 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>11</v>
@@ -30363,7 +30346,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30386,10 +30369,10 @@
         <v>11</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30426,13 +30409,13 @@
         <v>11</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H71" s="19"/>
     </row>
@@ -30460,13 +30443,13 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>11</v>
@@ -30475,7 +30458,7 @@
         <v>13</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30490,16 +30473,16 @@
         <v>11</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30508,13 +30491,13 @@
         <v>0.625</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>11</v>
@@ -30536,13 +30519,13 @@
         <v>11</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H76" s="19"/>
     </row>
@@ -30552,7 +30535,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>11</v>
@@ -30567,7 +30550,7 @@
         <v>13</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30584,16 +30567,16 @@
         <v>11</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30608,7 +30591,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>11</v>
@@ -30648,13 +30631,13 @@
         <v>11</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H81" s="19"/>
     </row>
@@ -30664,13 +30647,13 @@
         <v>0.49861111111111112</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>11</v>
@@ -30679,7 +30662,7 @@
         <v>13</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30694,16 +30677,16 @@
         <v>11</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30740,13 +30723,13 @@
         <v>11</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H85" s="19"/>
     </row>
@@ -30758,13 +30741,13 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>11</v>
@@ -30773,7 +30756,7 @@
         <v>13</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30788,16 +30771,16 @@
         <v>11</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30806,7 +30789,7 @@
         <v>0.17013888888888887</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>11</v>
@@ -30828,19 +30811,19 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H89" s="19"/>
     </row>
@@ -30868,13 +30851,13 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>11</v>
@@ -30883,7 +30866,7 @@
         <v>13</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -30898,16 +30881,16 @@
         <v>11</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -30938,7 +30921,7 @@
         <v>0.75</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>11</v>
@@ -30962,13 +30945,13 @@
         <v>11</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H95" s="19"/>
     </row>
@@ -30980,13 +30963,13 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>11</v>
@@ -30995,7 +30978,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31010,16 +30993,16 @@
         <v>11</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31034,7 +31017,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>11</v>
@@ -31062,7 +31045,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
     </row>
-    <row r="100" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="19"/>
       <c r="B100" s="14">
         <v>0.34375</v>
@@ -31074,17 +31057,15 @@
         <v>11</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="H100" s="22" t="s">
-        <v>335</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="H100" s="22"/>
     </row>
     <row r="101" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="19"/>
@@ -31092,13 +31073,13 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>11</v>
@@ -31107,7 +31088,7 @@
         <v>41</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31122,16 +31103,16 @@
         <v>11</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31140,7 +31121,7 @@
         <v>0.75</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>11</v>
@@ -31158,19 +31139,19 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H104" s="19"/>
     </row>
@@ -31182,13 +31163,13 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F105" s="17" t="s">
         <v>11</v>
@@ -31197,7 +31178,7 @@
         <v>13</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31212,16 +31193,16 @@
         <v>11</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31252,19 +31233,19 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H108" s="19"/>
     </row>
@@ -31274,7 +31255,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>11</v>
@@ -31298,7 +31279,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>11</v>
@@ -31307,7 +31288,7 @@
         <v>13</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31328,10 +31309,10 @@
         <v>11</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31340,13 +31321,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>11</v>
@@ -31380,19 +31361,19 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H114" s="19"/>
     </row>
@@ -31410,7 +31391,7 @@
         <v>11</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>11</v>
@@ -31419,7 +31400,7 @@
         <v>13</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31434,16 +31415,16 @@
         <v>11</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31458,7 +31439,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>11</v>
@@ -31474,7 +31455,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>11</v>
@@ -31498,13 +31479,13 @@
         <v>11</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F119" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H119" s="19"/>
     </row>
@@ -31529,7 +31510,7 @@
         <v>13</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31544,16 +31525,16 @@
         <v>11</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F121" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H121" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31584,19 +31565,19 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H123" s="19"/>
     </row>
@@ -31608,13 +31589,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>11</v>
@@ -31623,7 +31604,7 @@
         <v>13</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
@@ -31644,10 +31625,10 @@
         <v>11</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31700,13 +31681,13 @@
         <v>11</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F128" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H128" s="19"/>
     </row>
@@ -31722,7 +31703,7 @@
         <v>11</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F129" s="17" t="s">
         <v>11</v>
@@ -31731,10 +31712,10 @@
         <v>13</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="19"/>
       <c r="B130" s="14">
         <v>0.73611111111111116</v>
@@ -31746,15 +31727,17 @@
         <v>11</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F130" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="H130" s="19"/>
+        <v>330</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="19"/>
@@ -31786,7 +31769,7 @@
         <v>11</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F132" s="17" t="s">
         <v>11</v>
@@ -31814,11 +31797,11 @@
         <v>11</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H133" s="19"/>
     </row>
-    <row r="134" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="13">
         <v>44331</v>
       </c>
@@ -31826,7 +31809,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D134" s="17" t="s">
         <v>11</v>
@@ -31836,9 +31819,7 @@
         <v>11</v>
       </c>
       <c r="G134" s="19"/>
-      <c r="H134" s="22" t="s">
-        <v>373</v>
-      </c>
+      <c r="H134" s="22"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="19"/>
@@ -31846,7 +31827,7 @@
         <v>0.75</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>11</v>
@@ -31866,7 +31847,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>11</v>
@@ -31884,7 +31865,7 @@
         <v>0.75</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>11</v>
@@ -31922,7 +31903,7 @@
         <v>0.75</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>11</v>
@@ -31942,7 +31923,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>11</v>
@@ -31960,7 +31941,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>11</v>
@@ -31972,10 +31953,10 @@
         <v>11</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H141" s="22" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -31990,13 +31971,13 @@
         <v>11</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F142" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H142" s="19"/>
     </row>
@@ -32006,7 +31987,7 @@
         <v>0.75</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>11</v>
@@ -32026,7 +32007,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>11</v>
@@ -32064,7 +32045,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D146" s="17" t="s">
         <v>11</v>
@@ -32082,7 +32063,7 @@
         <v>0.75</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D147" s="17" t="s">
         <v>11</v>
@@ -32095,14 +32076,14 @@
       <c r="H147" s="19"/>
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="33">
+      <c r="A148" s="26">
         <v>44337</v>
       </c>
       <c r="B148" s="14">
         <v>0.33333333333333331</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>11</v>
@@ -32120,7 +32101,7 @@
         <v>0.75</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>11</v>
@@ -32140,7 +32121,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>11</v>
@@ -32158,7 +32139,7 @@
         <v>0.75</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>11</v>
@@ -32178,7 +32159,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>11</v>
@@ -32196,7 +32177,7 @@
         <v>0.75</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>11</v>
@@ -32216,7 +32197,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>11</v>
@@ -32234,7 +32215,7 @@
         <v>0.75</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>11</v>
@@ -32254,7 +32235,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>11</v>
@@ -32272,7 +32253,7 @@
         <v>0.75</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>11</v>
@@ -32292,19 +32273,19 @@
         <v>0.20486111111111113</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F158" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H158" s="19"/>
     </row>
@@ -32314,7 +32295,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>11</v>
@@ -32344,7 +32325,7 @@
         <v>11</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H160" s="19"/>
     </row>
@@ -32354,7 +32335,7 @@
         <v>0.75</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>11</v>
@@ -32374,7 +32355,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>11</v>
@@ -32392,7 +32373,7 @@
         <v>0.75</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>11</v>
@@ -32412,7 +32393,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D164" s="17" t="s">
         <v>11</v>
@@ -32430,7 +32411,7 @@
         <v>0.75</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>11</v>
@@ -32450,7 +32431,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>11</v>
@@ -32468,7 +32449,7 @@
         <v>0.75</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>11</v>
@@ -32488,7 +32469,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>11</v>
@@ -32526,7 +32507,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>11</v>
